--- a/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0139139276646961</v>
+        <v>0.01408558637480273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005190870781012589</v>
+        <v>0.004542005259002804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005613448401450776</v>
+        <v>0.005918709960982796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003204386848705006</v>
+        <v>0.003185571728986721</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006676964907354367</v>
+        <v>0.008275725310286627</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00729103668204329</v>
+        <v>0.007450592043475636</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01713038497246673</v>
+        <v>0.01617308164938461</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005153103669351068</v>
+        <v>0.00602964396166355</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01275359910750103</v>
+        <v>0.01401146530741544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008640629692320014</v>
+        <v>0.008635093444166499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01362646854516272</v>
+        <v>0.01366345447974257</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007543853815478224</v>
+        <v>0.007311031376248503</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04602369318481699</v>
+        <v>0.04869931394425342</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02635241205928687</v>
+        <v>0.02762514191688244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04111572607810281</v>
+        <v>0.04130380336734121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04411768500286117</v>
+        <v>0.04931746545083997</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03149690649030391</v>
+        <v>0.03285404578100076</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03786444705310973</v>
+        <v>0.03889286444404976</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05222220974261283</v>
+        <v>0.05389849178283218</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04878858491338931</v>
+        <v>0.04981604869051884</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03413260279589406</v>
+        <v>0.03490713872465165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02574258367137738</v>
+        <v>0.02752977991906775</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03666357280557654</v>
+        <v>0.03584745129354969</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0356588003738601</v>
+        <v>0.03585292277603423</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01158300737715563</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02354683107769957</v>
+        <v>0.02354683107769956</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01900665718080139</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01095979108632334</v>
+        <v>0.01100965362144624</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0161013216868561</v>
+        <v>0.01568713379943736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005053536586331842</v>
+        <v>0.004922399636099153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007051286132728423</v>
+        <v>0.00723491894292435</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009444400424043277</v>
+        <v>0.009338532615790878</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006578482351160104</v>
+        <v>0.006676041484006824</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004978431235052332</v>
+        <v>0.004888300717509638</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0110695407743832</v>
+        <v>0.01201192906557746</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0126224449117073</v>
+        <v>0.01263547256140261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01373611868749752</v>
+        <v>0.01407771010543492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007142436331693093</v>
+        <v>0.006564254099930335</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01214386839176502</v>
+        <v>0.01247909294070033</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03146704899691073</v>
+        <v>0.03229244049693647</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04351457491348994</v>
+        <v>0.04328049042860301</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02378049145779586</v>
+        <v>0.02386643132280881</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.046625673939538</v>
+        <v>0.04879256901524347</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03083981492417447</v>
+        <v>0.03293492124860189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02549761724590974</v>
+        <v>0.02584512813220209</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02325685308429428</v>
+        <v>0.02325599041021136</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04171663914815343</v>
+        <v>0.04559564623306767</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02743905079481556</v>
+        <v>0.02728966246843031</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03092931163266637</v>
+        <v>0.03071885695657523</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01950167177939444</v>
+        <v>0.01965576568661448</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03728054422303879</v>
+        <v>0.03590480759407189</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003178550624179679</v>
+        <v>0.003150821676724037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001402406964306684</v>
+        <v>0.001400672979852575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004263799120716275</v>
+        <v>0.004194941431745199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01002187796060976</v>
+        <v>0.01003069588166409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01604065729644137</v>
+        <v>0.01520164769761287</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01232661378566254</v>
+        <v>0.01242638491073646</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001342227082670423</v>
+        <v>0.001352620446728138</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009891970508166975</v>
+        <v>0.01012643830639192</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01165763559642158</v>
+        <v>0.01148520263964975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008202127495181451</v>
+        <v>0.008421835353233813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.003565823214747351</v>
+        <v>0.003526305264373572</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01206559673823521</v>
+        <v>0.01203304259689768</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01961318151725259</v>
+        <v>0.0195577509621284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01632944373259699</v>
+        <v>0.01530556507471412</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01990265115534968</v>
+        <v>0.01958342632253843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0363615416332274</v>
+        <v>0.03386168357536598</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04231920577463053</v>
+        <v>0.04153430869871835</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03642141854195521</v>
+        <v>0.03573626951606243</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01269114910902036</v>
+        <v>0.0119919607743163</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03042726784411787</v>
+        <v>0.02926523242981924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02696682337098956</v>
+        <v>0.02661795259161514</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02143114384785966</v>
+        <v>0.02353940299113111</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01305298376545975</v>
+        <v>0.01289912749771531</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02728103104487115</v>
+        <v>0.02802526456684298</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.003247958626545459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0217331348101308</v>
+        <v>0.02173313481013081</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01644342143798769</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01140801523339574</v>
+        <v>0.01173822909443516</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007097617138955517</v>
+        <v>0.006825438294854219</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01110964759420047</v>
+        <v>0.01123363754402714</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007980781865259103</v>
+        <v>0.007483371174811016</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01252573040123901</v>
+        <v>0.01190911960048515</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006926090257890778</v>
+        <v>0.007404089291372358</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01208225198181741</v>
+        <v>0.01234070131926952</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01211971428742007</v>
+        <v>0.01184450482009204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01274874685912627</v>
+        <v>0.01215300671569817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004887259887531231</v>
+        <v>0.005231009490201251</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01414800443894258</v>
+        <v>0.01413413282743243</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04100890041674412</v>
+        <v>0.04021474246661453</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02979317453368755</v>
+        <v>0.02790771486800236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01045916970488445</v>
+        <v>0.01127578632192649</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03667203923259151</v>
+        <v>0.03719376675094805</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02930897175601906</v>
+        <v>0.03260974939130237</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03660230294664781</v>
+        <v>0.03516804458182819</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02844627655239405</v>
+        <v>0.02836413114413779</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02850725422168735</v>
+        <v>0.02817696378680808</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03051836435467097</v>
+        <v>0.02985308146766191</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02789744685197065</v>
+        <v>0.02884698492702012</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01676246271378434</v>
+        <v>0.01679857643588827</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02818408019504178</v>
+        <v>0.02884787065307855</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004927923086578918</v>
+        <v>0.005064380223251579</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002170548240303745</v>
+        <v>0.002194834774683521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002177742321132403</v>
+        <v>0.002197218955760097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01126865367046437</v>
+        <v>0.01160997452632251</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.007446074349880638</v>
+        <v>0.007283510946346328</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002388105473560511</v>
+        <v>0.002389056535537546</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002376937253957186</v>
+        <v>0.002379384393928645</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008486299647305514</v>
+        <v>0.00834691163778899</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008486252208293982</v>
+        <v>0.007711631816856523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.003823470720905615</v>
+        <v>0.003793607934126679</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003501233029655422</v>
+        <v>0.003550880980453325</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0122185722072688</v>
+        <v>0.01226460299239533</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02851059435175211</v>
+        <v>0.02858398364926508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02066070407119735</v>
+        <v>0.02268815630763681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02347182653701072</v>
+        <v>0.02136641445239786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03512665436715581</v>
+        <v>0.03504640696459761</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03344754462110857</v>
+        <v>0.03240453168399399</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02429973682347996</v>
+        <v>0.02244212948422278</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02147997152711009</v>
+        <v>0.02202826776671611</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0236319252965426</v>
+        <v>0.02332790803003977</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02540386031688521</v>
+        <v>0.02480937640616415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01823666923262046</v>
+        <v>0.01722130537040773</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01831757932078927</v>
+        <v>0.016862398345108</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02531015976203174</v>
+        <v>0.02504096314793291</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.00838656111053559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.007125062687072141</v>
+        <v>0.007125062687072139</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.007926184544643059</v>
@@ -1365,7 +1365,7 @@
         <v>0.005415723301818258</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.007480919901267157</v>
+        <v>0.007480919901267156</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.007952535050923691</v>
@@ -1377,7 +1377,7 @@
         <v>0.006809619194625379</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.007309847474438688</v>
+        <v>0.007309847474438686</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003037887610707121</v>
+        <v>0.003101699065866121</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002146427306999455</v>
+        <v>0.001455901797677107</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.002488896348717581</v>
+        <v>0.002485638756070043</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.002881047328618015</v>
+        <v>0.002820758989378417</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.003217753177123347</v>
+        <v>0.002879156836605878</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.002669925050697512</v>
+        <v>0.002818145940553083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.00437005374359198</v>
+        <v>0.004306143244093662</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.001456021096112596</v>
+        <v>0.00146234582778103</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.003391502706594553</v>
+        <v>0.003678386573574222</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02687131342587252</v>
+        <v>0.02905688525223124</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02545909712393625</v>
+        <v>0.02606768950624493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03265395293645374</v>
+        <v>0.0301281512938769</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01745046245118101</v>
+        <v>0.01883794248991818</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0228679556139663</v>
+        <v>0.02393725839112531</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02751800245022357</v>
+        <v>0.02737854691769518</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01656071223036641</v>
+        <v>0.01900200285820888</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01583769311697265</v>
+        <v>0.01591127048812574</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0177889794968439</v>
+        <v>0.02021538588776617</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01893698315946949</v>
+        <v>0.02049501387672623</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01707309573810441</v>
+        <v>0.01753864095654883</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01338289978478424</v>
+        <v>0.0135781698038714</v>
       </c>
     </row>
     <row r="22">
@@ -1524,14 +1524,14 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0</v>
+        <v>0.003925071357882647</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001255978859877251</v>
+        <v>0.001262585771628584</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0018063914554777</v>
+        <v>0.001968210476530651</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.001204658476754553</v>
+        <v>0.001197539986343606</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.001071024081856285</v>
+        <v>0.001048288515326289</v>
       </c>
     </row>
     <row r="24">
@@ -1566,38 +1566,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0365825829201232</v>
+        <v>0.03502346239066481</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.02400833327472166</v>
+        <v>0.02371956291542288</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01525997271798789</v>
+        <v>0.01491886851840418</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01821662910623781</v>
+        <v>0.01557070667197358</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01768260062650807</v>
+        <v>0.02036392769793167</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01617146591894573</v>
+        <v>0.01596841263059268</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.006958080161543615</v>
+        <v>0.007842294903181498</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01848050729708171</v>
+        <v>0.01783876339668601</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01232726884670864</v>
+        <v>0.01143631747865165</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01237310054525927</v>
+        <v>0.0137882451533919</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.008230595085977319</v>
+        <v>0.007451401954614755</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>0.01021670087892437</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="28">
@@ -2007,40 +2007,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6851</v>
+        <v>6935</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2339</v>
+        <v>2047</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2329</v>
+        <v>2455</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3109</v>
+        <v>3854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3106</v>
+        <v>3174</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6762</v>
+        <v>6384</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1868</v>
+        <v>2186</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12219</v>
+        <v>13424</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7575</v>
+        <v>7570</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11031</v>
+        <v>11061</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5811</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="7">
@@ -2051,40 +2051,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22661</v>
+        <v>23978</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11876</v>
+        <v>12450</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17055</v>
+        <v>17133</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17991</v>
+        <v>20111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14668</v>
+        <v>15300</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16131</v>
+        <v>16569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20614</v>
+        <v>21275</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17686</v>
+        <v>18059</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32701</v>
+        <v>33443</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22568</v>
+        <v>24135</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29681</v>
+        <v>29020</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27468</v>
+        <v>27618</v>
       </c>
     </row>
     <row r="8">
@@ -2187,40 +2187,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8040</v>
+        <v>8077</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10986</v>
+        <v>10704</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2958</v>
+        <v>2881</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3363</v>
+        <v>3450</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5897</v>
+        <v>5830</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4002</v>
+        <v>4061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2801</v>
+        <v>2750</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5531</v>
+        <v>6002</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17140</v>
+        <v>17158</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17729</v>
+        <v>18169</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8199</v>
+        <v>7535</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11859</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="11">
@@ -2231,40 +2231,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23084</v>
+        <v>23689</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29691</v>
+        <v>29531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13918</v>
+        <v>13969</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22235</v>
+        <v>23269</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19255</v>
+        <v>20563</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15511</v>
+        <v>15722</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>13084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20844</v>
+        <v>22782</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37260</v>
+        <v>37057</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>39919</v>
+        <v>39647</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22386</v>
+        <v>22563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36406</v>
+        <v>35062</v>
       </c>
     </row>
     <row r="12">
@@ -2367,40 +2367,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2027</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2840</v>
+        <v>2794</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6183</v>
+        <v>6189</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11048</v>
+        <v>10470</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8684</v>
+        <v>8754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6154</v>
+        <v>6300</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>15465</v>
+        <v>15236</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11347</v>
+        <v>11651</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4717</v>
+        <v>4665</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14951</v>
+        <v>14910</v>
       </c>
     </row>
     <row r="15">
@@ -2411,40 +2411,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12510</v>
+        <v>12475</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11088</v>
+        <v>10393</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13257</v>
+        <v>13044</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22435</v>
+        <v>20892</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29148</v>
+        <v>28607</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25657</v>
+        <v>25175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8335</v>
+        <v>7876</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18930</v>
+        <v>18207</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35775</v>
+        <v>35312</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29650</v>
+        <v>32566</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17268</v>
+        <v>17064</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>33805</v>
+        <v>34727</v>
       </c>
     </row>
     <row r="16">
@@ -2547,40 +2547,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5909</v>
+        <v>6080</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4317</v>
+        <v>4152</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7770</v>
+        <v>7857</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4099</v>
+        <v>3844</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7665</v>
+        <v>7287</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4451</v>
+        <v>4759</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8880</v>
+        <v>9070</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12503</v>
+        <v>12219</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15556</v>
+        <v>14829</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6283</v>
+        <v>6725</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>20294</v>
+        <v>20274</v>
       </c>
     </row>
     <row r="19">
@@ -2591,40 +2591,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21243</v>
+        <v>20831</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18122</v>
+        <v>16975</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6724</v>
+        <v>7249</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25649</v>
+        <v>26014</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15054</v>
+        <v>16749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22398</v>
+        <v>21520</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18283</v>
+        <v>18230</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20952</v>
+        <v>20709</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>31483</v>
+        <v>30797</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>34040</v>
+        <v>35199</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>21550</v>
+        <v>21596</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>40427</v>
+        <v>41380</v>
       </c>
     </row>
     <row r="20">
@@ -2727,40 +2727,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1900</v>
+        <v>1953</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6855</v>
+        <v>7062</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3008</v>
+        <v>2942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5162</v>
+        <v>5077</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6701</v>
+        <v>6089</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3338</v>
+        <v>3312</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3388</v>
+        <v>3436</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14864</v>
+        <v>14920</v>
       </c>
     </row>
     <row r="23">
@@ -2771,40 +2771,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10995</v>
+        <v>11023</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8830</v>
+        <v>9696</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11136</v>
+        <v>10137</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21367</v>
+        <v>21319</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13512</v>
+        <v>13091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10829</v>
+        <v>10002</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10595</v>
+        <v>10865</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14373</v>
+        <v>14188</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>20060</v>
+        <v>19590</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15921</v>
+        <v>15035</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>17725</v>
+        <v>16317</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30790</v>
+        <v>30463</v>
       </c>
     </row>
     <row r="24">
@@ -2910,37 +2910,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>871</v>
+        <v>591</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1411</v>
+        <v>1263</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1694</v>
+        <v>1788</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2866</v>
+        <v>2824</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2864</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="27">
@@ -2951,40 +2951,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7834</v>
+        <v>8471</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7812</v>
+        <v>7999</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10759</v>
+        <v>9927</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7085</v>
+        <v>7648</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7842</v>
+        <v>8209</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9605</v>
+        <v>9556</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6173</v>
+        <v>7083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6946</v>
+        <v>6978</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11286</v>
+        <v>12826</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>12421</v>
+        <v>13442</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11989</v>
+        <v>12316</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11303</v>
+        <v>11468</v>
       </c>
     </row>
     <row r="28">
@@ -3087,14 +3087,14 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
@@ -3109,16 +3109,16 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>978</v>
+        <v>1066</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31">
@@ -3129,38 +3129,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7678</v>
+        <v>7351</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>6057</v>
+        <v>5984</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4728</v>
+        <v>4623</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6042</v>
+        <v>5164</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>6684</v>
+        <v>7697</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6394</v>
+        <v>6314</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3233</v>
+        <v>3644</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10008</v>
+        <v>9661</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>7674</v>
+        <v>7120</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>8014</v>
+        <v>8930</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6374</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
     </row>
     <row r="36">
